--- a/protected/data/master/person.xlsx
+++ b/protected/data/master/person.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="343">
   <si>
     <t>Reference Parameters</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Last Name</t>
-  </si>
-  <si>
-    <t>Initials</t>
   </si>
   <si>
     <t>Date of Birth</t>
@@ -969,15 +966,9 @@
     <t>Inactive</t>
   </si>
   <si>
-    <t>Person is not available for selection when a person must be specified.</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>Person is fully available.</t>
-  </si>
-  <si>
     <t>Phone Number</t>
   </si>
   <si>
@@ -1060,6 +1051,18 @@
   </si>
   <si>
     <t>Edit “master” worksheet as needed (“master” data is relevant to all components)</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>Initial</t>
+  </si>
+  <si>
+    <t>Person not active.</t>
+  </si>
+  <si>
+    <t>Person is active.</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1395,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1440,6 +1442,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1753,7 +1758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD44"/>
+  <dimension ref="A1:AE44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1762,43 +1767,43 @@
     <col min="1" max="1" width="8.19921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.796875" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.19921875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7.8984375" style="4" customWidth="1"/>
-    <col min="8" max="9" width="11" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10" style="5" customWidth="1"/>
-    <col min="11" max="11" width="20.09765625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="22.59765625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="24.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.796875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.796875" style="4" customWidth="1"/>
-    <col min="21" max="21" width="9.09765625" style="5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.19921875" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="12.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.8984375" style="4" customWidth="1"/>
-    <col min="27" max="27" width="9.19921875" style="4" customWidth="1"/>
-    <col min="28" max="28" width="9.296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.3984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.8984375" style="4" customWidth="1"/>
+    <col min="9" max="10" width="11" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10" style="5" customWidth="1"/>
+    <col min="12" max="12" width="20.09765625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="22.59765625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="24.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.8984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.796875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.796875" style="4" customWidth="1"/>
+    <col min="22" max="22" width="9.09765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.19921875" style="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="12.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.8984375" style="4" customWidth="1"/>
+    <col min="28" max="28" width="9.19921875" style="4" customWidth="1"/>
+    <col min="29" max="29" width="9.296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.3984375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="K1" s="6"/>
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1806,24 +1811,24 @@
         <v>2</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="K3" s="6"/>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="K4" s="6"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>3</v>
       </c>
@@ -1834,19 +1839,19 @@
         <v>5</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="17" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="17" t="s">
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="15"/>
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
@@ -1854,20 +1859,21 @@
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
-      <c r="U6" s="16"/>
+      <c r="U6" s="15"/>
       <c r="V6" s="16"/>
       <c r="W6" s="16"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="17" t="s">
+      <c r="X6" s="16"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="16"/>
+      <c r="AB6" s="15"/>
       <c r="AC6" s="16"/>
-      <c r="AD6" s="40"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="39"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="12" t="s">
@@ -1877,85 +1883,88 @@
         <v>10</v>
       </c>
       <c r="E7" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="G7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="I7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="K7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="L7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="M7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="N7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="O7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="P7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="Q7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="R7" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="S7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="T7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="U7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="V7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="U7" s="21" t="s">
+      <c r="W7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="V7" s="21" t="s">
+      <c r="X7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="W7" s="21" t="s">
+      <c r="Y7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="Z7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Y7" s="13" t="s">
+      <c r="AA7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Z7" s="11" t="s">
+      <c r="AB7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AA7" s="12" t="s">
+      <c r="AC7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="AB7" s="21" t="s">
+      <c r="AD7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="AC7" s="21" t="s">
+      <c r="AE7" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AD7" s="41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>1</v>
       </c>
@@ -1963,52 +1972,53 @@
         <v>2</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="17" t="s">
+      <c r="I8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16">
+        <f>VLOOKUP(L8,person_profile!$B$2:$D$10,3,)</f>
+        <v>1</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16">
-        <f>VLOOKUP(K8,person_profile!$B$2:$D$10,3,)</f>
-        <v>1</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="15"/>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
-      <c r="U8" s="16"/>
+      <c r="U8" s="15"/>
       <c r="V8" s="16"/>
       <c r="W8" s="16"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="18"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="15"/>
       <c r="AC8" s="16"/>
-      <c r="AD8" s="40"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="39"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>2</v>
       </c>
@@ -2016,52 +2026,53 @@
         <v>2</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="25" t="s">
+      <c r="G9" s="25"/>
+      <c r="H9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="25">
-        <f>VLOOKUP(K9,person_profile!$B$2:$D$10,3,)</f>
+      <c r="I9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="25">
+        <f>VLOOKUP(L9,person_profile!$B$2:$D$10,3,)</f>
         <v>2</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="4" t="s">
+      <c r="L9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="9"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
       <c r="T9" s="9"/>
-      <c r="U9" s="25"/>
+      <c r="U9" s="9"/>
       <c r="V9" s="25"/>
       <c r="W9" s="25"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="9"/>
       <c r="AC9" s="25"/>
-      <c r="AD9" s="42"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="41"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>3</v>
       </c>
@@ -2069,93 +2080,94 @@
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="G10" s="46">
+        <v>21551</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="26">
-        <v>21551</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="I10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="J10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="K10" s="25">
+        <f>VLOOKUP(L10,person_profile!$B$2:$D$10,3,)</f>
+        <v>3</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J10" s="25">
-        <f>VLOOKUP(K10,person_profile!$B$2:$D$10,3,)</f>
-        <v>3</v>
-      </c>
-      <c r="K10" s="10" t="s">
+      <c r="M10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="N10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="O10" s="4" t="str">
+        <f t="shared" ref="O10:O31" si="0">CONCATENATE(H10,"@",$B$2)</f>
+        <v>bjenks@swiftconstructioncompany.net</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N10" s="4" t="str">
-        <f t="shared" ref="N10:N31" si="0">CONCATENATE(G10,"@",$B$2)</f>
-        <v>bjenks@swiftconstructioncompany.net</v>
-      </c>
-      <c r="O10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="R10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="S10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="R10" s="4" t="s">
+      <c r="T10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T10" s="4" t="s">
+      <c r="V10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="W10" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="V10" s="5">
+      <c r="Y10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD10" s="5">
         <v>13054</v>
       </c>
-      <c r="W10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB10" s="5" t="s">
+      <c r="AE10" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="AC10" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD10" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>4</v>
       </c>
@@ -2163,90 +2175,91 @@
         <v>2</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="G11" s="46">
+        <v>14277</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="26">
-        <v>14277</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="I11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="25">
+        <f>VLOOKUP(L11,person_profile!$B$2:$D$10,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="L11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="25">
-        <f>VLOOKUP(K11,person_profile!$B$2:$D$10,3,)</f>
-        <v>9</v>
-      </c>
-      <c r="K11" s="10" t="s">
+      <c r="M11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" s="4" t="str">
+      <c r="O11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>bswift@swiftconstructioncompany.net</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="P11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="R11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="T11" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W11" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA11" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="AB11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="AC11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="AD11" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE11" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V11" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y11" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC11" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD11" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>5</v>
       </c>
@@ -2254,93 +2267,94 @@
         <v>2</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="G12" s="46">
+        <v>21610</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="26">
-        <v>21610</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="I12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="25">
+        <f>VLOOKUP(L12,person_profile!$B$2:$D$10,3,)</f>
+        <v>3</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="25">
-        <f>VLOOKUP(K12,person_profile!$B$2:$D$10,3,)</f>
-        <v>3</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="4" t="str">
+      <c r="O12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>barmstrong@swiftconstructioncompany.net</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q12" s="4" t="s">
+      <c r="S12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W12" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z12" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="R12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="S12" s="4" t="s">
+      <c r="AB12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="AC12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="AD12" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE12" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z12" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB12" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC12" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD12" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>6</v>
       </c>
@@ -2348,93 +2362,94 @@
         <v>2</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="5"/>
+      <c r="F13" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="G13" s="46">
+        <v>21641</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="26">
-        <v>21641</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="I13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="25">
+        <f>VLOOKUP(L13,person_profile!$B$2:$D$10,3,)</f>
+        <v>3</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="25">
-        <f>VLOOKUP(K13,person_profile!$B$2:$D$10,3,)</f>
-        <v>3</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N13" s="4" t="str">
+      <c r="O13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>fmason@swiftconstructioncompany.net</v>
       </c>
-      <c r="O13" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="P13" s="4" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W13" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA13" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="S13" s="4" t="s">
+      <c r="AB13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="AC13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="AD13" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE13" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V13" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z13" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA13" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC13" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD13" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>7</v>
       </c>
@@ -2442,93 +2457,94 @@
         <v>2</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="G14" s="46">
+        <v>21671</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="26">
-        <v>21671</v>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="I14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="25">
+        <f>VLOOKUP(L14,person_profile!$B$2:$D$10,3,)</f>
+        <v>5</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="25">
-        <f>VLOOKUP(K14,person_profile!$B$2:$D$10,3,)</f>
-        <v>5</v>
-      </c>
-      <c r="K14" s="10" t="s">
+      <c r="M14" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N14" s="4" t="str">
+      <c r="O14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>gjackson@swiftconstructioncompany.net</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="P14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="R14" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="Q14" s="4" t="s">
+      <c r="S14" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="T14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W14" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="AB14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="AC14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="AD14" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE14" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V14" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y14" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z14" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC14" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD14" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>8</v>
       </c>
@@ -2536,93 +2552,94 @@
         <v>2</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="G15" s="46">
+        <v>21702</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="26">
-        <v>21702</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="I15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="25">
+        <f>VLOOKUP(L15,person_profile!$B$2:$D$10,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="25">
-        <f>VLOOKUP(K15,person_profile!$B$2:$D$10,3,)</f>
-        <v>9</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="N15" s="4" t="str">
+      <c r="O15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>hbaldwin@swiftconstructioncompany.net</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="P15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="P15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q15" s="4" t="s">
+      <c r="S15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W15" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA15" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="R15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S15" s="4" t="s">
+      <c r="AB15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T15" s="4" t="s">
+      <c r="AC15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="AD15" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE15" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V15" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z15" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC15" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD15" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>9</v>
       </c>
@@ -2630,93 +2647,94 @@
         <v>2</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="G16" s="46">
+        <v>21732</v>
+      </c>
+      <c r="H16" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="26">
-        <v>21732</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="I16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="25">
+        <f>VLOOKUP(L16,person_profile!$B$2:$D$10,3,)</f>
+        <v>4</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J16" s="25">
-        <f>VLOOKUP(K16,person_profile!$B$2:$D$10,3,)</f>
-        <v>4</v>
-      </c>
-      <c r="K16" s="10" t="s">
+      <c r="M16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M16" s="4" t="s">
+      <c r="O16" s="4" t="str">
+        <f>CONCATENATE(H16,"@",$B$2)</f>
+        <v>hrandall@swiftconstructioncompany.net</v>
+      </c>
+      <c r="P16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="N16" s="4" t="str">
-        <f>CONCATENATE(G16,"@",$B$2)</f>
-        <v>hrandall@swiftconstructioncompany.net</v>
-      </c>
-      <c r="O16" s="4" t="s">
+      <c r="Q16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="R16" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="P16" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="4" t="s">
+      <c r="S16" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="T16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W16" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA16" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="AB16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="AC16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U16" s="5" t="s">
+      <c r="AD16" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE16" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V16" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y16" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z16" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC16" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD16" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>10</v>
       </c>
@@ -2724,93 +2742,94 @@
         <v>2</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="G17" s="46">
+        <v>21763</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="26">
-        <v>21763</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="I17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="25">
+        <f>VLOOKUP(L17,person_profile!$B$2:$D$10,3,)</f>
+        <v>8</v>
+      </c>
+      <c r="L17" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="25">
-        <f>VLOOKUP(K17,person_profile!$B$2:$D$10,3,)</f>
-        <v>8</v>
-      </c>
-      <c r="K17" s="10" t="s">
+      <c r="M17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="L17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="N17" s="4" t="str">
+      <c r="O17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jwood@swiftconstructioncompany.net</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="P17" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q17" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="P17" s="4" t="s">
+      <c r="R17" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="Q17" s="4" t="s">
+      <c r="S17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="T17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W17" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA17" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="AB17" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="AC17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="AD17" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE17" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V17" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y17" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z17" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA17" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC17" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD17" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
         <v>11</v>
       </c>
@@ -2818,93 +2837,94 @@
         <v>2</v>
       </c>
       <c r="C18" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="G18" s="46">
+        <v>21794</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="26">
-        <v>21794</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="I18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="25">
+        <f>VLOOKUP(L18,person_profile!$B$2:$D$10,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J18" s="25">
-        <f>VLOOKUP(K18,person_profile!$B$2:$D$10,3,)</f>
-        <v>9</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="N18" s="4" t="str">
+      <c r="O18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jperiod@swiftconstructioncompany.net</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="P18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S18" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="P18" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R18" s="4" t="s">
+      <c r="T18" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W18" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z18" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA18" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="AB18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="AC18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="AD18" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE18" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V18" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z18" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC18" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD18" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>12</v>
       </c>
@@ -2912,93 +2932,94 @@
         <v>2</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="G19" s="46">
+        <v>21824</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="26">
-        <v>21824</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="I19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="25">
+        <f>VLOOKUP(L19,person_profile!$B$2:$D$10,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="L19" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J19" s="25">
-        <f>VLOOKUP(K19,person_profile!$B$2:$D$10,3,)</f>
-        <v>6</v>
-      </c>
-      <c r="K19" s="10" t="s">
+      <c r="M19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="N19" s="4" t="str">
+      <c r="O19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jhaddon@swiftconstructioncompany.net</v>
       </c>
-      <c r="O19" s="4" t="s">
+      <c r="P19" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R19" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="P19" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q19" s="4" t="s">
+      <c r="S19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W19" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA19" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="R19" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S19" s="4" t="s">
+      <c r="AB19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T19" s="4" t="s">
+      <c r="AC19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="AD19" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE19" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V19" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X19" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y19" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z19" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC19" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD19" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="23">
         <v>13</v>
       </c>
@@ -3006,93 +3027,94 @@
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="G20" s="46">
+        <v>21855</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="26">
-        <v>21855</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="I20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="25">
+        <f>VLOOKUP(L20,person_profile!$B$2:$D$10,3,)</f>
+        <v>4</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="25">
-        <f>VLOOKUP(K20,person_profile!$B$2:$D$10,3,)</f>
-        <v>4</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="N20" s="4" t="str">
+      <c r="O20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jmorse@swiftconstructioncompany.net</v>
       </c>
-      <c r="O20" s="4" t="s">
+      <c r="P20" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="R20" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="P20" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q20" s="4" t="s">
+      <c r="S20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W20" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA20" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="R20" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="S20" s="4" t="s">
+      <c r="AB20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T20" s="4" t="s">
+      <c r="AC20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U20" s="5" t="s">
+      <c r="AD20" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE20" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V20" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y20" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z20" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB20" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC20" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD20" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>14</v>
       </c>
@@ -3100,93 +3122,94 @@
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="G21" s="46">
+        <v>21885</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="26">
-        <v>21885</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="I21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="25">
+        <f>VLOOKUP(L21,person_profile!$B$2:$D$10,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="25">
-        <f>VLOOKUP(K21,person_profile!$B$2:$D$10,3,)</f>
-        <v>9</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="N21" s="4" t="str">
+      <c r="O21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>jsharp@swiftconstructioncompany.net</v>
       </c>
-      <c r="O21" s="4" t="s">
+      <c r="P21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S21" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="T21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W21" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA21" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="Q21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="S21" s="4" t="s">
+      <c r="AB21" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T21" s="4" t="s">
+      <c r="AC21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U21" s="5" t="s">
+      <c r="AD21" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE21" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V21" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W21" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y21" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z21" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB21" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC21" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD21" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>15</v>
       </c>
@@ -3194,93 +3217,94 @@
         <v>2</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="5"/>
+      <c r="F22" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="G22" s="46">
+        <v>12785</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="F22" s="26">
-        <v>12785</v>
-      </c>
-      <c r="G22" s="8" t="s">
+      <c r="I22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="25">
+        <f>VLOOKUP(L22,person_profile!$B$2:$D$10,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" s="25">
-        <f>VLOOKUP(K22,person_profile!$B$2:$D$10,3,)</f>
-        <v>9</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="N22" s="4" t="str">
+      <c r="O22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mbaggert@swiftconstructioncompany.net</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="P22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S22" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="P22" s="4" t="s">
+      <c r="T22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W22" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA22" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="Q22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="S22" s="4" t="s">
+      <c r="AB22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T22" s="4" t="s">
+      <c r="AC22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U22" s="5" t="s">
+      <c r="AD22" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE22" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V22" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z22" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA22" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC22" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD22" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="23">
         <v>16</v>
       </c>
@@ -3288,93 +3312,94 @@
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="G23" s="46">
+        <v>23815</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F23" s="26">
-        <v>23815</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="I23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="25">
+        <f>VLOOKUP(L23,person_profile!$B$2:$D$10,3,)</f>
+        <v>1</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J23" s="25">
-        <f>VLOOKUP(K23,person_profile!$B$2:$D$10,3,)</f>
-        <v>1</v>
-      </c>
-      <c r="K23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="N23" s="4" t="str">
+      <c r="O23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mnestor@swiftconstructioncompany.net</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="P23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S23" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="T23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V23" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W23" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA23" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="Q23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="S23" s="4" t="s">
+      <c r="AB23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T23" s="4" t="s">
+      <c r="AC23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U23" s="5" t="s">
+      <c r="AD23" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE23" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V23" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y23" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z23" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA23" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC23" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD23" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>17</v>
       </c>
@@ -3382,93 +3407,94 @@
         <v>2</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="46">
+        <v>21976</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F24" s="26">
-        <v>21976</v>
-      </c>
-      <c r="G24" s="8" t="s">
+      <c r="I24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="25">
+        <f>VLOOKUP(L24,person_profile!$B$2:$D$10,3,)</f>
+        <v>3</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" s="25">
-        <f>VLOOKUP(K24,person_profile!$B$2:$D$10,3,)</f>
-        <v>3</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="N24" s="4" t="str">
+      <c r="O24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mblair@swiftconstructioncompany.net</v>
       </c>
-      <c r="O24" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="P24" s="4" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W24" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA24" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="R24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="S24" s="4" t="s">
+      <c r="AB24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T24" s="4" t="s">
+      <c r="AC24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U24" s="5" t="s">
+      <c r="AD24" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE24" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V24" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W24" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y24" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z24" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC24" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD24" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>18</v>
       </c>
@@ -3476,93 +3502,94 @@
         <v>2</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="G25" s="46">
+        <v>22007</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F25" s="26">
-        <v>22007</v>
-      </c>
-      <c r="G25" s="8" t="s">
+      <c r="I25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="25">
+        <f>VLOOKUP(L25,person_profile!$B$2:$D$10,3,)</f>
+        <v>7</v>
+      </c>
+      <c r="L25" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J25" s="25">
-        <f>VLOOKUP(K25,person_profile!$B$2:$D$10,3,)</f>
-        <v>7</v>
-      </c>
-      <c r="K25" s="10" t="s">
+      <c r="M25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N25" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="L25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="N25" s="4" t="str">
+      <c r="O25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>mdelazes@swiftconstructioncompany.net</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="P25" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R25" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="P25" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q25" s="4" t="s">
+      <c r="S25" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W25" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA25" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="R25" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="S25" s="4" t="s">
+      <c r="AB25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T25" s="4" t="s">
+      <c r="AC25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U25" s="5" t="s">
+      <c r="AD25" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE25" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V25" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W25" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y25" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z25" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC25" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD25" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>19</v>
       </c>
@@ -3570,93 +3597,94 @@
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="G26" s="46">
+        <v>22037</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F26" s="26">
-        <v>22037</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="I26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="25">
+        <f>VLOOKUP(L26,person_profile!$B$2:$D$10,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N26" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J26" s="25">
-        <f>VLOOKUP(K26,person_profile!$B$2:$D$10,3,)</f>
-        <v>9</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="N26" s="4" t="str">
+      <c r="O26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>nnewton@swiftconstructioncompany.net</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="P26" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W26" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z26" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA26" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="P26" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q26" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="S26" s="4" t="s">
+      <c r="AB26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T26" s="4" t="s">
+      <c r="AC26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U26" s="5" t="s">
+      <c r="AD26" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE26" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V26" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y26" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z26" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB26" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC26" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD26" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>20</v>
       </c>
@@ -3664,93 +3692,94 @@
         <v>2</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="G27" s="46">
+        <v>13667</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F27" s="26">
-        <v>13667</v>
-      </c>
-      <c r="G27" s="8" t="s">
+      <c r="I27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="25">
+        <f>VLOOKUP(L27,person_profile!$B$2:$D$10,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N27" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="25">
-        <f>VLOOKUP(K27,person_profile!$B$2:$D$10,3,)</f>
-        <v>9</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="N27" s="4" t="str">
+      <c r="O27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>rsampson@swiftconstructioncompany.net</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="P27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S27" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="T27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W27" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z27" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA27" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="Q27" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="S27" s="4" t="s">
+      <c r="AB27" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T27" s="4" t="s">
+      <c r="AC27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U27" s="5" t="s">
+      <c r="AD27" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE27" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V27" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W27" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y27" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z27" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB27" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC27" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD27" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>21</v>
       </c>
@@ -3758,93 +3787,94 @@
         <v>2</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="G28" s="46">
+        <v>22098</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F28" s="26">
-        <v>22098</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="I28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="25">
+        <f>VLOOKUP(L28,person_profile!$B$2:$D$10,3,)</f>
+        <v>6</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="25">
-        <f>VLOOKUP(K28,person_profile!$B$2:$D$10,3,)</f>
-        <v>6</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="N28" s="4" t="str">
+      <c r="O28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>smalloy@swiftconstructioncompany.net</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="P28" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R28" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="P28" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q28" s="4" t="s">
+      <c r="S28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W28" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z28" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA28" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="R28" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S28" s="4" t="s">
+      <c r="AB28" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T28" s="4" t="s">
+      <c r="AC28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U28" s="5" t="s">
+      <c r="AD28" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE28" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V28" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X28" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y28" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z28" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC28" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD28" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>22</v>
       </c>
@@ -3852,93 +3882,94 @@
         <v>2</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="G29" s="46">
+        <v>21879</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="F29" s="26">
-        <v>21879</v>
-      </c>
-      <c r="G29" s="8" t="s">
+      <c r="I29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="25">
+        <f>VLOOKUP(L29,person_profile!$B$2:$D$10,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" s="25">
-        <f>VLOOKUP(K29,person_profile!$B$2:$D$10,3,)</f>
-        <v>9</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="N29" s="4" t="str">
+      <c r="O29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>tswift@swiftconstructioncompany.net</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="P29" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W29" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z29" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA29" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="P29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q29" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="S29" s="4" t="s">
+      <c r="AB29" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T29" s="4" t="s">
+      <c r="AC29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U29" s="5" t="s">
+      <c r="AD29" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE29" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V29" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W29" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X29" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z29" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC29" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD29" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>23</v>
       </c>
@@ -3946,93 +3977,94 @@
         <v>2</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="G30" s="46">
+        <v>22160</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="F30" s="26">
-        <v>22160</v>
-      </c>
-      <c r="G30" s="8" t="s">
+      <c r="I30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="25">
+        <f>VLOOKUP(L30,person_profile!$B$2:$D$10,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N30" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J30" s="25">
-        <f>VLOOKUP(K30,person_profile!$B$2:$D$10,3,)</f>
-        <v>9</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="N30" s="4" t="str">
+      <c r="O30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>wdamon@swiftconstructioncompany.net</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="P30" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="R30" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="P30" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q30" s="4" t="s">
+      <c r="S30" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="R30" s="4" t="s">
+      <c r="T30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="V30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="W30" s="5">
+        <v>13054</v>
+      </c>
+      <c r="X30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z30" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA30" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="S30" s="4" t="s">
+      <c r="AB30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="T30" s="4" t="s">
+      <c r="AC30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U30" s="5" t="s">
+      <c r="AD30" s="5">
+        <v>13054</v>
+      </c>
+      <c r="AE30" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V30" s="5">
-        <v>13054</v>
-      </c>
-      <c r="W30" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y30" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z30" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="AA30" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB30" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC30" s="5">
-        <v>13054</v>
-      </c>
-      <c r="AD30" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>24</v>
       </c>
@@ -4040,121 +4072,122 @@
         <v>2</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="E31" s="25"/>
+      <c r="F31" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="E31" s="25" t="s">
+      <c r="G31" s="46">
+        <v>22190</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F31" s="26">
-        <v>22190</v>
-      </c>
-      <c r="G31" s="8" t="s">
+      <c r="I31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="25">
+        <f>VLOOKUP(L31,person_profile!$B$2:$D$10,3,)</f>
+        <v>9</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="N31" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J31" s="25">
-        <f>VLOOKUP(K31,person_profile!$B$2:$D$10,3,)</f>
-        <v>9</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="N31" s="4" t="str">
+      <c r="O31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>wcrawford@swiftconstructioncompany.net</v>
       </c>
-      <c r="O31" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="P31" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="R31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="T31" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="V31" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="W31" s="25">
+        <v>13054</v>
+      </c>
+      <c r="X31" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z31" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA31" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="Q31" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="R31" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="S31" s="9" t="s">
+      <c r="AB31" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="T31" s="9" t="s">
+      <c r="AC31" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="U31" s="25" t="s">
+      <c r="AD31" s="25">
+        <v>13054</v>
+      </c>
+      <c r="AE31" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="V31" s="25">
-        <v>13054</v>
-      </c>
-      <c r="W31" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="X31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y31" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z31" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA31" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB31" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC31" s="25">
-        <v>13054</v>
-      </c>
-      <c r="AD31" s="42" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="7"/>
-    </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="7"/>
-    </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="7"/>
-    </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="7"/>
-    </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="7"/>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L44" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.5374000000000001" bottom="0.5374000000000001" header="0" footer="0"/>
@@ -4180,51 +4213,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="J2" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K2" s="7" t="str">
         <f>CONCATENATE(A2,":",B2,":",C2,":",D2,":",E2,":",F2,":",G2,":",H2,":",I2,":",J2)</f>
@@ -4233,16 +4266,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="7" t="str">
         <f t="shared" ref="K3:K25" si="0">CONCATENATE(A3,":",B3,":",C3,":",D3,":",E3,":",F3,":",G3,":",H3,":",I3,":",J3)</f>
@@ -4251,16 +4284,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="K4" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4269,16 +4302,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4287,16 +4320,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4305,16 +4338,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4323,16 +4356,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4341,16 +4374,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4359,16 +4392,16 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4377,16 +4410,16 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4395,16 +4428,16 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4413,16 +4446,16 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4431,16 +4464,16 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4449,16 +4482,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4467,16 +4500,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4485,16 +4518,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4503,16 +4536,16 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4521,16 +4554,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4539,16 +4572,16 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4557,16 +4590,16 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K21" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4575,16 +4608,16 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4593,16 +4626,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4611,16 +4644,16 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4629,16 +4662,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K25" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4662,7 +4695,7 @@
     <col min="1" max="1" width="8.59765625" style="7" customWidth="1"/>
     <col min="2" max="3" width="8.59765625" style="4" customWidth="1"/>
     <col min="4" max="4" width="29.3984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7" style="5" customWidth="1"/>
     <col min="6" max="6" width="8.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="7.296875" style="5" customWidth="1"/>
@@ -4671,34 +4704,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -4706,19 +4739,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="str">
-        <f>master!G8</f>
-        <v>admin</v>
-      </c>
-      <c r="C2" s="4" t="str">
         <f>master!H8</f>
         <v>admin</v>
       </c>
+      <c r="C2" s="4" t="str">
+        <f>master!I8</f>
+        <v>admin</v>
+      </c>
       <c r="D2" s="4" t="str">
-        <f>master!N8</f>
+        <f>master!O8</f>
         <v>tswift@swiftconstructioncompany.net</v>
       </c>
-      <c r="E2" s="4" t="str">
-        <f>master!E8</f>
+      <c r="E2" s="5" t="str">
+        <f>master!F8</f>
         <v>AD</v>
       </c>
       <c r="F2" s="4" t="str">
@@ -4730,15 +4763,15 @@
         <v>Admin</v>
       </c>
       <c r="H2" s="5" t="str">
-        <f>master!E8</f>
-        <v>AD</v>
+        <f>IF(master!E8,master!E8,"")</f>
+        <v/>
       </c>
       <c r="I2" s="5">
         <f>master!B8</f>
         <v>2</v>
       </c>
       <c r="J2" s="5">
-        <f>master!J8</f>
+        <f>master!K8</f>
         <v>1</v>
       </c>
     </row>
@@ -4747,19 +4780,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="str">
-        <f>master!G9</f>
-        <v>demo</v>
-      </c>
-      <c r="C3" s="4" t="str">
         <f>master!H9</f>
         <v>demo</v>
       </c>
+      <c r="C3" s="4" t="str">
+        <f>master!I9</f>
+        <v>demo</v>
+      </c>
       <c r="D3" s="4" t="str">
-        <f>master!N9</f>
+        <f>master!O9</f>
         <v>tswift@swiftconstructioncompany.net</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>43</v>
+      <c r="E3" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F3" s="4" t="str">
         <f>master!D9</f>
@@ -4770,15 +4803,15 @@
         <v>Demo</v>
       </c>
       <c r="H3" s="5" t="str">
-        <f>master!E9</f>
-        <v>DU</v>
+        <f>IF(master!E9,master!E9,"")</f>
+        <v/>
       </c>
       <c r="I3" s="5">
         <f>master!B9</f>
         <v>2</v>
       </c>
       <c r="J3" s="5">
-        <f>master!J9</f>
+        <f>master!K9</f>
         <v>2</v>
       </c>
     </row>
@@ -4787,19 +4820,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f>master!G10</f>
+        <f>master!H10</f>
         <v>bjenks</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>master!H10</f>
+        <f>master!I10</f>
         <v>appleton</v>
       </c>
       <c r="D4" s="4" t="str">
-        <f>master!N10</f>
+        <f>master!O10</f>
         <v>bjenks@swiftconstructioncompany.net</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>47</v>
+      <c r="E4" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="F4" s="4" t="str">
         <f>master!D10</f>
@@ -4810,15 +4843,15 @@
         <v>Barcoe</v>
       </c>
       <c r="H4" s="5" t="str">
-        <f>master!E10</f>
-        <v>BJ</v>
+        <f>IF(master!E10,master!E10,"")</f>
+        <v/>
       </c>
       <c r="I4" s="5">
         <f>master!B10</f>
         <v>2</v>
       </c>
       <c r="J4" s="5">
-        <f>master!J10</f>
+        <f>master!K10</f>
         <v>3</v>
       </c>
     </row>
@@ -4827,19 +4860,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="str">
-        <f>master!G11</f>
+        <f>master!H11</f>
         <v>bswift</v>
       </c>
       <c r="C5" s="4" t="str">
-        <f>master!H11</f>
+        <f>master!I11</f>
         <v>appleton</v>
       </c>
       <c r="D5" s="4" t="str">
-        <f>master!N11</f>
+        <f>master!O11</f>
         <v>bswift@swiftconstructioncompany.net</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>67</v>
+      <c r="E5" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="F5" s="4" t="str">
         <f>master!D11</f>
@@ -4850,15 +4883,15 @@
         <v>Barton</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f>master!E11</f>
-        <v>BS</v>
+        <f>IF(master!E11,master!E11,"")</f>
+        <v/>
       </c>
       <c r="I5" s="5">
         <f>master!B11</f>
         <v>2</v>
       </c>
       <c r="J5" s="5">
-        <f>master!J11</f>
+        <f>master!K11</f>
         <v>9</v>
       </c>
     </row>
@@ -4867,19 +4900,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="str">
-        <f>master!G12</f>
+        <f>master!H12</f>
         <v>barmstrong</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>master!H12</f>
+        <f>master!I12</f>
         <v>appleton</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f>master!N12</f>
+        <f>master!O12</f>
         <v>barmstrong@swiftconstructioncompany.net</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>77</v>
+      <c r="E6" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="F6" s="4" t="str">
         <f>master!D12</f>
@@ -4890,15 +4923,15 @@
         <v>Bub</v>
       </c>
       <c r="H6" s="5" t="str">
-        <f>master!E12</f>
-        <v>BA</v>
+        <f>IF(master!E12,master!E12,"")</f>
+        <v/>
       </c>
       <c r="I6" s="5">
         <f>master!B12</f>
         <v>2</v>
       </c>
       <c r="J6" s="5">
-        <f>master!J12</f>
+        <f>master!K12</f>
         <v>3</v>
       </c>
     </row>
@@ -4907,19 +4940,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f>master!G13</f>
+        <f>master!H13</f>
         <v>fmason</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>master!H13</f>
+        <f>master!I13</f>
         <v>appleton</v>
       </c>
       <c r="D7" s="4" t="str">
-        <f>master!N13</f>
+        <f>master!O13</f>
         <v>fmason@swiftconstructioncompany.net</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>85</v>
+      <c r="E7" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="F7" s="4" t="str">
         <f>master!D13</f>
@@ -4930,15 +4963,15 @@
         <v>Frank</v>
       </c>
       <c r="H7" s="5" t="str">
-        <f>master!E13</f>
-        <v>FM</v>
+        <f>IF(master!E13,master!E13,"")</f>
+        <v/>
       </c>
       <c r="I7" s="5">
         <f>master!B13</f>
         <v>2</v>
       </c>
       <c r="J7" s="5">
-        <f>master!J13</f>
+        <f>master!K13</f>
         <v>3</v>
       </c>
     </row>
@@ -4947,19 +4980,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="str">
-        <f>master!G14</f>
+        <f>master!H14</f>
         <v>gjackson</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f>master!H14</f>
+        <f>master!I14</f>
         <v>appleton</v>
       </c>
       <c r="D8" s="4" t="str">
-        <f>master!N14</f>
+        <f>master!O14</f>
         <v>gjackson@swiftconstructioncompany.net</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>92</v>
+      <c r="E8" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="F8" s="4" t="str">
         <f>master!D14</f>
@@ -4970,15 +5003,15 @@
         <v>Garret</v>
       </c>
       <c r="H8" s="5" t="str">
-        <f>master!E14</f>
-        <v>GJ</v>
+        <f>IF(master!E14,master!E14,"")</f>
+        <v/>
       </c>
       <c r="I8" s="5">
         <f>master!B14</f>
         <v>2</v>
       </c>
       <c r="J8" s="5">
-        <f>master!J14</f>
+        <f>master!K14</f>
         <v>5</v>
       </c>
     </row>
@@ -4987,19 +5020,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f>master!G15</f>
+        <f>master!H15</f>
         <v>hbaldwin</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>master!H15</f>
+        <f>master!I15</f>
         <v>appleton</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f>master!N15</f>
+        <f>master!O15</f>
         <v>hbaldwin@swiftconstructioncompany.net</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>103</v>
+      <c r="E9" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="F9" s="4" t="str">
         <f>master!D15</f>
@@ -5010,15 +5043,15 @@
         <v>Hank</v>
       </c>
       <c r="H9" s="5" t="str">
-        <f>master!E15</f>
-        <v>HB</v>
+        <f>IF(master!E15,master!E15,"")</f>
+        <v/>
       </c>
       <c r="I9" s="5">
         <f>master!B15</f>
         <v>2</v>
       </c>
       <c r="J9" s="5">
-        <f>master!J15</f>
+        <f>master!K15</f>
         <v>9</v>
       </c>
     </row>
@@ -5027,19 +5060,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f>master!G16</f>
+        <f>master!H16</f>
         <v>hrandall</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>master!H16</f>
+        <f>master!I16</f>
         <v>appleton</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f>master!N16</f>
+        <f>master!O16</f>
         <v>hrandall@swiftconstructioncompany.net</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>111</v>
+      <c r="E10" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="F10" s="4" t="str">
         <f>master!D16</f>
@@ -5050,15 +5083,15 @@
         <v>Helen</v>
       </c>
       <c r="H10" s="5" t="str">
-        <f>master!E16</f>
-        <v>HR</v>
+        <f>IF(master!E16,master!E16,"")</f>
+        <v/>
       </c>
       <c r="I10" s="5">
         <f>master!B16</f>
         <v>2</v>
       </c>
       <c r="J10" s="5">
-        <f>master!J16</f>
+        <f>master!K16</f>
         <v>4</v>
       </c>
     </row>
@@ -5067,19 +5100,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="str">
-        <f>master!G17</f>
+        <f>master!H17</f>
         <v>jwood</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f>master!H17</f>
+        <f>master!I17</f>
         <v>appleton</v>
       </c>
       <c r="D11" s="4" t="str">
-        <f>master!N17</f>
+        <f>master!O17</f>
         <v>jwood@swiftconstructioncompany.net</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>121</v>
+      <c r="E11" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="F11" s="4" t="str">
         <f>master!D17</f>
@@ -5090,15 +5123,15 @@
         <v>Jacab</v>
       </c>
       <c r="H11" s="5" t="str">
-        <f>master!E17</f>
-        <v>JW</v>
+        <f>IF(master!E17,master!E17,"")</f>
+        <v/>
       </c>
       <c r="I11" s="5">
         <f>master!B17</f>
         <v>2</v>
       </c>
       <c r="J11" s="5">
-        <f>master!J17</f>
+        <f>master!K17</f>
         <v>8</v>
       </c>
     </row>
@@ -5107,19 +5140,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="str">
-        <f>master!G18</f>
+        <f>master!H18</f>
         <v>jperiod</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f>master!H18</f>
+        <f>master!I18</f>
         <v>appleton</v>
       </c>
       <c r="D12" s="4" t="str">
-        <f>master!N18</f>
+        <f>master!O18</f>
         <v>jperiod@swiftconstructioncompany.net</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>132</v>
+      <c r="E12" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="F12" s="4" t="str">
         <f>master!D18</f>
@@ -5130,15 +5163,15 @@
         <v>James</v>
       </c>
       <c r="H12" s="5" t="str">
-        <f>master!E18</f>
-        <v>JP</v>
+        <f>IF(master!E18,master!E18,"")</f>
+        <v/>
       </c>
       <c r="I12" s="5">
         <f>master!B18</f>
         <v>2</v>
       </c>
       <c r="J12" s="5">
-        <f>master!J18</f>
+        <f>master!K18</f>
         <v>9</v>
       </c>
     </row>
@@ -5147,19 +5180,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="str">
-        <f>master!G19</f>
+        <f>master!H19</f>
         <v>jhaddon</v>
       </c>
       <c r="C13" s="4" t="str">
-        <f>master!H19</f>
+        <f>master!I19</f>
         <v>appleton</v>
       </c>
       <c r="D13" s="4" t="str">
-        <f>master!N19</f>
+        <f>master!O19</f>
         <v>jhaddon@swiftconstructioncompany.net</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>140</v>
+      <c r="E13" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="F13" s="4" t="str">
         <f>master!D19</f>
@@ -5170,15 +5203,15 @@
         <v>Jennie</v>
       </c>
       <c r="H13" s="5" t="str">
-        <f>master!E19</f>
-        <v>JH</v>
+        <f>IF(master!E19,master!E19,"")</f>
+        <v/>
       </c>
       <c r="I13" s="5">
         <f>master!B19</f>
         <v>2</v>
       </c>
       <c r="J13" s="5">
-        <f>master!J19</f>
+        <f>master!K19</f>
         <v>6</v>
       </c>
     </row>
@@ -5187,19 +5220,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="str">
-        <f>master!G20</f>
+        <f>master!H20</f>
         <v>jmorse</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f>master!H20</f>
+        <f>master!I20</f>
         <v>appleton</v>
       </c>
       <c r="D14" s="4" t="str">
-        <f>master!N20</f>
+        <f>master!O20</f>
         <v>jmorse@swiftconstructioncompany.net</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>148</v>
+      <c r="E14" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="F14" s="4" t="str">
         <f>master!D20</f>
@@ -5210,15 +5243,15 @@
         <v>Jennie</v>
       </c>
       <c r="H14" s="5" t="str">
-        <f>master!E20</f>
-        <v>JM</v>
+        <f>IF(master!E20,master!E20,"")</f>
+        <v/>
       </c>
       <c r="I14" s="5">
         <f>master!B20</f>
         <v>2</v>
       </c>
       <c r="J14" s="5">
-        <f>master!J20</f>
+        <f>master!K20</f>
         <v>4</v>
       </c>
     </row>
@@ -5227,19 +5260,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="str">
-        <f>master!G21</f>
+        <f>master!H21</f>
         <v>jsharp</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f>master!H21</f>
+        <f>master!I21</f>
         <v>appleton</v>
       </c>
       <c r="D15" s="4" t="str">
-        <f>master!N21</f>
+        <f>master!O21</f>
         <v>jsharp@swiftconstructioncompany.net</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>156</v>
+      <c r="E15" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="F15" s="4" t="str">
         <f>master!D21</f>
@@ -5250,15 +5283,15 @@
         <v>John</v>
       </c>
       <c r="H15" s="5" t="str">
-        <f>master!E21</f>
-        <v>JS</v>
+        <f>IF(master!E21,master!E21,"")</f>
+        <v/>
       </c>
       <c r="I15" s="5">
         <f>master!B21</f>
         <v>2</v>
       </c>
       <c r="J15" s="5">
-        <f>master!J21</f>
+        <f>master!K21</f>
         <v>9</v>
       </c>
     </row>
@@ -5267,19 +5300,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="str">
-        <f>master!G22</f>
+        <f>master!H22</f>
         <v>mbaggert</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f>master!H22</f>
+        <f>master!I22</f>
         <v>appleton</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f>master!N22</f>
+        <f>master!O22</f>
         <v>mbaggert@swiftconstructioncompany.net</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>163</v>
+      <c r="E16" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F16" s="4" t="str">
         <f>master!D22</f>
@@ -5290,15 +5323,15 @@
         <v>Martha</v>
       </c>
       <c r="H16" s="5" t="str">
-        <f>master!E22</f>
-        <v>MB</v>
+        <f>IF(master!E22,master!E22,"")</f>
+        <v/>
       </c>
       <c r="I16" s="5">
         <f>master!B22</f>
         <v>2</v>
       </c>
       <c r="J16" s="5">
-        <f>master!J22</f>
+        <f>master!K22</f>
         <v>9</v>
       </c>
     </row>
@@ -5307,19 +5340,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="str">
-        <f>master!G23</f>
+        <f>master!H23</f>
         <v>mnestor</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f>master!H23</f>
+        <f>master!I23</f>
         <v>appleton</v>
       </c>
       <c r="D17" s="4" t="str">
-        <f>master!N23</f>
+        <f>master!O23</f>
         <v>mnestor@swiftconstructioncompany.net</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>170</v>
+      <c r="E17" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="F17" s="4" t="str">
         <f>master!D23</f>
@@ -5330,15 +5363,15 @@
         <v>Mary</v>
       </c>
       <c r="H17" s="5" t="str">
-        <f>master!E23</f>
-        <v>MN</v>
+        <f>IF(master!E23,master!E23,"")</f>
+        <v/>
       </c>
       <c r="I17" s="5">
         <f>master!B23</f>
         <v>2</v>
       </c>
       <c r="J17" s="5">
-        <f>master!J23</f>
+        <f>master!K23</f>
         <v>1</v>
       </c>
     </row>
@@ -5347,19 +5380,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="str">
-        <f>master!G24</f>
+        <f>master!H24</f>
         <v>mblair</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f>master!H24</f>
+        <f>master!I24</f>
         <v>appleton</v>
       </c>
       <c r="D18" s="4" t="str">
-        <f>master!N24</f>
+        <f>master!O24</f>
         <v>mblair@swiftconstructioncompany.net</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>163</v>
+      <c r="E18" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F18" s="4" t="str">
         <f>master!D24</f>
@@ -5370,15 +5403,15 @@
         <v>Minnie</v>
       </c>
       <c r="H18" s="5" t="str">
-        <f>master!E24</f>
-        <v>MB</v>
+        <f>IF(master!E24,master!E24,"")</f>
+        <v/>
       </c>
       <c r="I18" s="5">
         <f>master!B24</f>
         <v>2</v>
       </c>
       <c r="J18" s="5">
-        <f>master!J24</f>
+        <f>master!K24</f>
         <v>3</v>
       </c>
     </row>
@@ -5387,19 +5420,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="str">
-        <f>master!G25</f>
+        <f>master!H25</f>
         <v>mdelazes</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f>master!H25</f>
+        <f>master!I25</f>
         <v>appleton</v>
       </c>
       <c r="D19" s="4" t="str">
-        <f>master!N25</f>
+        <f>master!O25</f>
         <v>mdelazes@swiftconstructioncompany.net</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>183</v>
+      <c r="E19" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="F19" s="4" t="str">
         <f>master!D25</f>
@@ -5410,15 +5443,15 @@
         <v>Miquel</v>
       </c>
       <c r="H19" s="5" t="str">
-        <f>master!E25</f>
-        <v>MD</v>
+        <f>IF(master!E25,master!E25,"")</f>
+        <v/>
       </c>
       <c r="I19" s="5">
         <f>master!B25</f>
         <v>2</v>
       </c>
       <c r="J19" s="5">
-        <f>master!J25</f>
+        <f>master!K25</f>
         <v>7</v>
       </c>
     </row>
@@ -5427,19 +5460,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="str">
-        <f>master!G26</f>
+        <f>master!H26</f>
         <v>nnewton</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f>master!H26</f>
+        <f>master!I26</f>
         <v>appleton</v>
       </c>
       <c r="D20" s="4" t="str">
-        <f>master!N26</f>
+        <f>master!O26</f>
         <v>nnewton@swiftconstructioncompany.net</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>192</v>
+      <c r="E20" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="F20" s="4" t="str">
         <f>master!D26</f>
@@ -5450,15 +5483,15 @@
         <v>Ned</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f>master!E26</f>
-        <v>NN</v>
+        <f>IF(master!E26,master!E26,"")</f>
+        <v/>
       </c>
       <c r="I20" s="5">
         <f>master!B26</f>
         <v>2</v>
       </c>
       <c r="J20" s="5">
-        <f>master!J26</f>
+        <f>master!K26</f>
         <v>9</v>
       </c>
     </row>
@@ -5467,19 +5500,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="str">
-        <f>master!G27</f>
+        <f>master!H27</f>
         <v>rsampson</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f>master!H27</f>
+        <f>master!I27</f>
         <v>appleton</v>
       </c>
       <c r="D21" s="4" t="str">
-        <f>master!N27</f>
+        <f>master!O27</f>
         <v>rsampson@swiftconstructioncompany.net</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>199</v>
+      <c r="E21" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="F21" s="4" t="str">
         <f>master!D27</f>
@@ -5490,15 +5523,15 @@
         <v>Rad</v>
       </c>
       <c r="H21" s="5" t="str">
-        <f>master!E27</f>
-        <v>RS</v>
+        <f>IF(master!E27,master!E27,"")</f>
+        <v/>
       </c>
       <c r="I21" s="5">
         <f>master!B27</f>
         <v>2</v>
       </c>
       <c r="J21" s="5">
-        <f>master!J27</f>
+        <f>master!K27</f>
         <v>9</v>
       </c>
     </row>
@@ -5507,19 +5540,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="str">
-        <f>master!G28</f>
+        <f>master!H28</f>
         <v>smalloy</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f>master!H28</f>
+        <f>master!I28</f>
         <v>appleton</v>
       </c>
       <c r="D22" s="4" t="str">
-        <f>master!N28</f>
+        <f>master!O28</f>
         <v>smalloy@swiftconstructioncompany.net</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>206</v>
+      <c r="E22" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="F22" s="4" t="str">
         <f>master!D28</f>
@@ -5530,15 +5563,15 @@
         <v>Sarah</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f>master!E28</f>
-        <v>SM</v>
+        <f>IF(master!E28,master!E28,"")</f>
+        <v/>
       </c>
       <c r="I22" s="5">
         <f>master!B28</f>
         <v>2</v>
       </c>
       <c r="J22" s="5">
-        <f>master!J28</f>
+        <f>master!K28</f>
         <v>6</v>
       </c>
     </row>
@@ -5547,19 +5580,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="str">
-        <f>master!G29</f>
+        <f>master!H29</f>
         <v>tswift</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f>master!H29</f>
+        <f>master!I29</f>
         <v>appleton</v>
       </c>
       <c r="D23" s="4" t="str">
-        <f>master!N29</f>
+        <f>master!O29</f>
         <v>tswift@swiftconstructioncompany.net</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>213</v>
+      <c r="E23" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="F23" s="4" t="str">
         <f>master!D29</f>
@@ -5570,15 +5603,15 @@
         <v>Tom</v>
       </c>
       <c r="H23" s="5" t="str">
-        <f>master!E29</f>
-        <v>TS</v>
+        <f>IF(master!E29,master!E29,"")</f>
+        <v/>
       </c>
       <c r="I23" s="5">
         <f>master!B29</f>
         <v>2</v>
       </c>
       <c r="J23" s="5">
-        <f>master!J29</f>
+        <f>master!K29</f>
         <v>9</v>
       </c>
     </row>
@@ -5587,19 +5620,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="str">
-        <f>master!G30</f>
+        <f>master!H30</f>
         <v>wdamon</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f>master!H30</f>
+        <f>master!I30</f>
         <v>appleton</v>
       </c>
       <c r="D24" s="4" t="str">
-        <f>master!N30</f>
+        <f>master!O30</f>
         <v>wdamon@swiftconstructioncompany.net</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>220</v>
+      <c r="E24" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="F24" s="4" t="str">
         <f>master!D30</f>
@@ -5610,15 +5643,15 @@
         <v>Wakefield</v>
       </c>
       <c r="H24" s="5" t="str">
-        <f>master!E30</f>
-        <v>WD</v>
+        <f>IF(master!E30,master!E30,"")</f>
+        <v/>
       </c>
       <c r="I24" s="5">
         <f>master!B30</f>
         <v>2</v>
       </c>
       <c r="J24" s="5">
-        <f>master!J30</f>
+        <f>master!K30</f>
         <v>9</v>
       </c>
     </row>
@@ -5627,19 +5660,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="str">
-        <f>master!G31</f>
+        <f>master!H31</f>
         <v>wcrawford</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f>master!H31</f>
+        <f>master!I31</f>
         <v>appleton</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f>master!N31</f>
+        <f>master!O31</f>
         <v>wcrawford@swiftconstructioncompany.net</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>229</v>
+      <c r="E25" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="F25" s="4" t="str">
         <f>master!D31</f>
@@ -5650,15 +5683,15 @@
         <v>William</v>
       </c>
       <c r="H25" s="5" t="str">
-        <f>master!E31</f>
-        <v>WC</v>
+        <f>IF(master!E31,master!E31,"")</f>
+        <v/>
       </c>
       <c r="I25" s="5">
         <f>master!B31</f>
         <v>2</v>
       </c>
       <c r="J25" s="5">
-        <f>master!J31</f>
+        <f>master!K31</f>
         <v>9</v>
       </c>
     </row>
@@ -5677,172 +5710,172 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="35" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="34" customWidth="1"/>
     <col min="2" max="2" width="13.19921875" style="7" customWidth="1"/>
     <col min="3" max="3" width="41.796875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="6.69921875" style="36" customWidth="1"/>
+    <col min="4" max="4" width="6.69921875" style="35" customWidth="1"/>
     <col min="5" max="24" width="6.69921875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="30" t="s">
+      <c r="F1" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>283</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>284</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="L1" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="M1" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="N1" s="30" t="s">
         <v>288</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="O1" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="P1" s="30" t="s">
         <v>290</v>
       </c>
-      <c r="P1" s="31" t="s">
+      <c r="Q1" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="R1" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="S1" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="T1" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="T1" s="31" t="s">
+      <c r="U1" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="V1" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="V1" s="31" t="s">
+      <c r="W1" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="W1" s="31" t="s">
+      <c r="X1" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="X1" s="32" t="s">
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="D2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D2" s="34">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="X2" s="33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="X2" s="34" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <v>2</v>
       </c>
       <c r="E3" s="6"/>
@@ -5853,7 +5886,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -5864,85 +5897,85 @@
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W3" s="6"/>
-      <c r="X3" s="34" t="s">
-        <v>301</v>
+      <c r="X3" s="33" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="D4" s="34">
+        <v>302</v>
+      </c>
+      <c r="D4" s="33">
         <v>3</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="X4" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="X4" s="33" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D5" s="34">
+        <v>303</v>
+      </c>
+      <c r="D5" s="33">
         <v>4</v>
       </c>
       <c r="E5" s="6"/>
@@ -5952,19 +5985,19 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
@@ -5972,27 +6005,27 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W5" s="6"/>
-      <c r="X5" s="34" t="s">
-        <v>301</v>
+      <c r="X5" s="33" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="D6" s="34">
+        <v>304</v>
+      </c>
+      <c r="D6" s="33">
         <v>5</v>
       </c>
       <c r="E6" s="6"/>
@@ -6003,43 +6036,43 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S6" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T6" s="6"/>
       <c r="U6" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V6" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="X6" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
+      </c>
+      <c r="X6" s="33" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D7" s="34">
+        <v>305</v>
+      </c>
+      <c r="D7" s="33">
         <v>6</v>
       </c>
       <c r="E7" s="6"/>
@@ -6047,58 +6080,58 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T7" s="6"/>
       <c r="U7" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W7" s="6"/>
-      <c r="X7" s="34" t="s">
-        <v>301</v>
+      <c r="X7" s="33" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D8" s="34">
+        <v>306</v>
+      </c>
+      <c r="D8" s="33">
         <v>7</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -6106,7 +6139,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -6117,27 +6150,27 @@
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W8" s="6"/>
-      <c r="X8" s="34" t="s">
-        <v>301</v>
+      <c r="X8" s="33" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D9" s="34">
+        <v>307</v>
+      </c>
+      <c r="D9" s="33">
         <v>8</v>
       </c>
       <c r="E9" s="6"/>
@@ -6148,13 +6181,13 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -6163,27 +6196,27 @@
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
       <c r="U9" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W9" s="6"/>
-      <c r="X9" s="34" t="s">
-        <v>301</v>
+      <c r="X9" s="33" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D10" s="34">
+        <v>308</v>
+      </c>
+      <c r="D10" s="33">
         <v>9</v>
       </c>
       <c r="E10" s="6"/>
@@ -6194,7 +6227,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -6205,14 +6238,14 @@
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="W10" s="6"/>
-      <c r="X10" s="34" t="s">
-        <v>301</v>
+      <c r="X10" s="33" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -6228,7 +6261,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6242,22 +6277,22 @@
       <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="37" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6265,10 +6300,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>313</v>
+        <v>310</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -6305,25 +6340,25 @@
         <v>9</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -6336,26 +6371,26 @@
         <v>Barcoe</v>
       </c>
       <c r="C2" s="7" t="str">
-        <f>master!G10</f>
+        <f>master!H10</f>
         <v>bjenks</v>
       </c>
       <c r="D2" s="7" t="str">
-        <f>master!X10</f>
+        <f>master!Y10</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E2" s="7" t="str">
-        <f>master!N10</f>
+        <f>master!O10</f>
         <v>bjenks@swiftconstructioncompany.net</v>
       </c>
       <c r="F2" s="7" t="str">
-        <f>master!P10</f>
+        <f>master!Q10</f>
         <v>Engineering</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -6368,29 +6403,29 @@
         <v>Barton</v>
       </c>
       <c r="C3" s="7" t="str">
-        <f>master!G11</f>
+        <f>master!H11</f>
         <v>bswift</v>
       </c>
       <c r="D3" s="7" t="str">
-        <f>master!X11</f>
+        <f>master!Y11</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>master!N11</f>
+        <f>master!O11</f>
         <v>bswift@swiftconstructioncompany.net</v>
       </c>
       <c r="F3" s="7" t="str">
-        <f>master!P11</f>
+        <f>master!Q11</f>
         <v>Management</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -6403,26 +6438,26 @@
         <v>Bub</v>
       </c>
       <c r="C4" s="7" t="str">
-        <f>master!G12</f>
+        <f>master!H12</f>
         <v>barmstrong</v>
       </c>
       <c r="D4" s="7" t="str">
-        <f>master!X12</f>
+        <f>master!Y12</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>master!N12</f>
+        <f>master!O12</f>
         <v>barmstrong@swiftconstructioncompany.net</v>
       </c>
       <c r="F4" s="7" t="str">
-        <f>master!P12</f>
+        <f>master!Q12</f>
         <v>Engineering</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -6435,29 +6470,29 @@
         <v>Frank</v>
       </c>
       <c r="C5" s="7" t="str">
-        <f>master!G13</f>
+        <f>master!H13</f>
         <v>fmason</v>
       </c>
       <c r="D5" s="7" t="str">
-        <f>master!X13</f>
+        <f>master!Y13</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>master!N13</f>
+        <f>master!O13</f>
         <v>fmason@swiftconstructioncompany.net</v>
       </c>
       <c r="F5" s="7" t="str">
-        <f>master!P13</f>
+        <f>master!Q13</f>
         <v>Engineering</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -6470,29 +6505,29 @@
         <v>Garret</v>
       </c>
       <c r="C6" s="7" t="str">
-        <f>master!G14</f>
+        <f>master!H14</f>
         <v>gjackson</v>
       </c>
       <c r="D6" s="7" t="str">
-        <f>master!X14</f>
+        <f>master!Y14</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>master!N14</f>
+        <f>master!O14</f>
         <v>gjackson@swiftconstructioncompany.net</v>
       </c>
       <c r="F6" s="7" t="str">
-        <f>master!P14</f>
+        <f>master!Q14</f>
         <v>Manufacturing</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -6505,26 +6540,26 @@
         <v>Hank</v>
       </c>
       <c r="C7" s="7" t="str">
-        <f>master!G15</f>
+        <f>master!H15</f>
         <v>hbaldwin</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f>master!X15</f>
+        <f>master!Y15</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>master!N15</f>
+        <f>master!O15</f>
         <v>hbaldwin@swiftconstructioncompany.net</v>
       </c>
       <c r="F7" s="7" t="str">
-        <f>master!P15</f>
+        <f>master!Q15</f>
         <v>Manufacturing</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -6537,26 +6572,26 @@
         <v>Helen</v>
       </c>
       <c r="C8" s="7" t="str">
-        <f>master!G16</f>
+        <f>master!H16</f>
         <v>hrandall</v>
       </c>
       <c r="D8" s="7" t="str">
-        <f>master!X16</f>
+        <f>master!Y16</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>master!N16</f>
+        <f>master!O16</f>
         <v>hrandall@swiftconstructioncompany.net</v>
       </c>
       <c r="F8" s="7" t="str">
-        <f>master!P16</f>
+        <f>master!Q16</f>
         <v>Finance</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -6569,26 +6604,26 @@
         <v>Jacab</v>
       </c>
       <c r="C9" s="7" t="str">
-        <f>master!G17</f>
+        <f>master!H17</f>
         <v>jwood</v>
       </c>
       <c r="D9" s="7" t="str">
-        <f>master!X17</f>
+        <f>master!Y17</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>master!N17</f>
+        <f>master!O17</f>
         <v>jwood@swiftconstructioncompany.net</v>
       </c>
       <c r="F9" s="7" t="str">
-        <f>master!P17</f>
+        <f>master!Q17</f>
         <v>Sales &amp; Marketing</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -6601,26 +6636,26 @@
         <v>James</v>
       </c>
       <c r="C10" s="7" t="str">
-        <f>master!G18</f>
+        <f>master!H18</f>
         <v>jperiod</v>
       </c>
       <c r="D10" s="7" t="str">
-        <f>master!X18</f>
+        <f>master!Y18</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>master!N18</f>
+        <f>master!O18</f>
         <v>jperiod@swiftconstructioncompany.net</v>
       </c>
       <c r="F10" s="7" t="str">
-        <f>master!P18</f>
+        <f>master!Q18</f>
         <v>Sales &amp; Marketing</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -6633,26 +6668,26 @@
         <v>Jennie</v>
       </c>
       <c r="C11" s="7" t="str">
-        <f>master!G19</f>
+        <f>master!H19</f>
         <v>jhaddon</v>
       </c>
       <c r="D11" s="7" t="str">
-        <f>master!X19</f>
+        <f>master!Y19</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>master!N19</f>
+        <f>master!O19</f>
         <v>jhaddon@swiftconstructioncompany.net</v>
       </c>
       <c r="F11" s="7" t="str">
-        <f>master!P19</f>
+        <f>master!Q19</f>
         <v>Manufacturing</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -6665,26 +6700,26 @@
         <v>Jennie</v>
       </c>
       <c r="C12" s="7" t="str">
-        <f>master!G20</f>
+        <f>master!H20</f>
         <v>jmorse</v>
       </c>
       <c r="D12" s="7" t="str">
-        <f>master!X20</f>
+        <f>master!Y20</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E12" s="7" t="str">
-        <f>master!N20</f>
+        <f>master!O20</f>
         <v>jmorse@swiftconstructioncompany.net</v>
       </c>
       <c r="F12" s="7" t="str">
-        <f>master!P20</f>
+        <f>master!Q20</f>
         <v>Finance</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -6697,26 +6732,26 @@
         <v>John</v>
       </c>
       <c r="C13" s="7" t="str">
-        <f>master!G21</f>
+        <f>master!H21</f>
         <v>jsharp</v>
       </c>
       <c r="D13" s="7" t="str">
-        <f>master!X21</f>
+        <f>master!Y21</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E13" s="7" t="str">
-        <f>master!N21</f>
+        <f>master!O21</f>
         <v>jsharp@swiftconstructioncompany.net</v>
       </c>
       <c r="F13" s="7" t="str">
-        <f>master!P21</f>
+        <f>master!Q21</f>
         <v>Product Management</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -6729,26 +6764,26 @@
         <v>Martha</v>
       </c>
       <c r="C14" s="7" t="str">
-        <f>master!G22</f>
+        <f>master!H22</f>
         <v>mbaggert</v>
       </c>
       <c r="D14" s="7" t="str">
-        <f>master!X22</f>
+        <f>master!Y22</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E14" s="7" t="str">
-        <f>master!N22</f>
+        <f>master!O22</f>
         <v>mbaggert@swiftconstructioncompany.net</v>
       </c>
       <c r="F14" s="7" t="str">
-        <f>master!P22</f>
+        <f>master!Q22</f>
         <v>Human Resources</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -6761,29 +6796,29 @@
         <v>Mary</v>
       </c>
       <c r="C15" s="7" t="str">
-        <f>master!G23</f>
+        <f>master!H23</f>
         <v>mnestor</v>
       </c>
       <c r="D15" s="7" t="str">
-        <f>master!X23</f>
+        <f>master!Y23</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E15" s="7" t="str">
-        <f>master!N23</f>
+        <f>master!O23</f>
         <v>mnestor@swiftconstructioncompany.net</v>
       </c>
       <c r="F15" s="7" t="str">
-        <f>master!P23</f>
+        <f>master!Q23</f>
         <v>MIS/IT</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -6796,29 +6831,29 @@
         <v>Minnie</v>
       </c>
       <c r="C16" s="7" t="str">
-        <f>master!G24</f>
+        <f>master!H24</f>
         <v>mblair</v>
       </c>
       <c r="D16" s="7" t="str">
-        <f>master!X24</f>
+        <f>master!Y24</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E16" s="7" t="str">
-        <f>master!N24</f>
+        <f>master!O24</f>
         <v>mblair@swiftconstructioncompany.net</v>
       </c>
       <c r="F16" s="7" t="str">
-        <f>master!P24</f>
+        <f>master!Q24</f>
         <v>Engineering</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -6831,29 +6866,29 @@
         <v>Miquel</v>
       </c>
       <c r="C17" s="7" t="str">
-        <f>master!G25</f>
+        <f>master!H25</f>
         <v>mdelazes</v>
       </c>
       <c r="D17" s="7" t="str">
-        <f>master!X25</f>
+        <f>master!Y25</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E17" s="7" t="str">
-        <f>master!N25</f>
+        <f>master!O25</f>
         <v>mdelazes@swiftconstructioncompany.net</v>
       </c>
       <c r="F17" s="7" t="str">
-        <f>master!P25</f>
+        <f>master!Q25</f>
         <v>Manufacturing</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -6866,26 +6901,26 @@
         <v>Ned</v>
       </c>
       <c r="C18" s="7" t="str">
-        <f>master!G26</f>
+        <f>master!H26</f>
         <v>nnewton</v>
       </c>
       <c r="D18" s="7" t="str">
-        <f>master!X26</f>
+        <f>master!Y26</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E18" s="7" t="str">
-        <f>master!N26</f>
+        <f>master!O26</f>
         <v>nnewton@swiftconstructioncompany.net</v>
       </c>
       <c r="F18" s="7" t="str">
-        <f>master!P26</f>
+        <f>master!Q26</f>
         <v>Finance</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -6898,29 +6933,29 @@
         <v>Rad</v>
       </c>
       <c r="C19" s="7" t="str">
-        <f>master!G27</f>
+        <f>master!H27</f>
         <v>rsampson</v>
       </c>
       <c r="D19" s="7" t="str">
-        <f>master!X27</f>
+        <f>master!Y27</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E19" s="7" t="str">
-        <f>master!N27</f>
+        <f>master!O27</f>
         <v>rsampson@swiftconstructioncompany.net</v>
       </c>
       <c r="F19" s="7" t="str">
-        <f>master!P27</f>
+        <f>master!Q27</f>
         <v>Quality</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -6933,29 +6968,29 @@
         <v>Sarah</v>
       </c>
       <c r="C20" s="7" t="str">
-        <f>master!G28</f>
+        <f>master!H28</f>
         <v>smalloy</v>
       </c>
       <c r="D20" s="7" t="str">
-        <f>master!X28</f>
+        <f>master!Y28</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E20" s="7" t="str">
-        <f>master!N28</f>
+        <f>master!O28</f>
         <v>smalloy@swiftconstructioncompany.net</v>
       </c>
       <c r="F20" s="7" t="str">
-        <f>master!P28</f>
+        <f>master!Q28</f>
         <v>Manufacturing</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -6968,29 +7003,29 @@
         <v>Tom</v>
       </c>
       <c r="C21" s="7" t="str">
-        <f>master!G29</f>
+        <f>master!H29</f>
         <v>tswift</v>
       </c>
       <c r="D21" s="7" t="str">
-        <f>master!X29</f>
+        <f>master!Y29</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E21" s="7" t="str">
-        <f>master!N29</f>
+        <f>master!O29</f>
         <v>tswift@swiftconstructioncompany.net</v>
       </c>
       <c r="F21" s="7" t="str">
-        <f>master!P29</f>
+        <f>master!Q29</f>
         <v>Engineering</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -7003,29 +7038,29 @@
         <v>Wakefield</v>
       </c>
       <c r="C22" s="7" t="str">
-        <f>master!G30</f>
+        <f>master!H30</f>
         <v>wdamon</v>
       </c>
       <c r="D22" s="7" t="str">
-        <f>master!X30</f>
+        <f>master!Y30</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E22" s="7" t="str">
-        <f>master!N30</f>
+        <f>master!O30</f>
         <v>wdamon@swiftconstructioncompany.net</v>
       </c>
       <c r="F22" s="7" t="str">
-        <f>master!P30</f>
+        <f>master!Q30</f>
         <v>Product Management</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -7038,26 +7073,26 @@
         <v>William</v>
       </c>
       <c r="C23" s="7" t="str">
-        <f>master!G31</f>
+        <f>master!H31</f>
         <v>wcrawford</v>
       </c>
       <c r="D23" s="7" t="str">
-        <f>master!X31</f>
+        <f>master!Y31</f>
         <v>1-315-123-4567</v>
       </c>
       <c r="E23" s="7" t="str">
-        <f>master!N31</f>
+        <f>master!O31</f>
         <v>wcrawford@swiftconstructioncompany.net</v>
       </c>
       <c r="F23" s="7" t="str">
-        <f>master!P31</f>
+        <f>master!Q31</f>
         <v>Legal</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -7089,34 +7124,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="J1" s="44" t="s">
         <v>324</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="J1" s="45" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7133,21 +7168,21 @@
         <v>User</v>
       </c>
       <c r="E2" s="7" t="str">
-        <f>master!N8</f>
+        <f>master!O8</f>
         <v>tswift@swiftconstructioncompany.net</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I2" s="7" t="str">
-        <f>master!G8</f>
+        <f>master!H8</f>
         <v>admin</v>
       </c>
-      <c r="J2" s="46" t="s">
-        <v>335</v>
+      <c r="J2" s="45" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -7164,21 +7199,21 @@
         <v>User</v>
       </c>
       <c r="E3" s="7" t="str">
-        <f>master!N9</f>
+        <f>master!O9</f>
         <v>tswift@swiftconstructioncompany.net</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I3" s="7" t="str">
-        <f>master!G9</f>
+        <f>master!H9</f>
         <v>demo</v>
       </c>
-      <c r="J3" s="43" t="s">
-        <v>336</v>
+      <c r="J3" s="42" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -7195,29 +7230,29 @@
         <v>Jenks</v>
       </c>
       <c r="D4" s="7" t="str">
-        <f>master!M10</f>
+        <f>master!N10</f>
         <v>Electronics Engineer</v>
       </c>
       <c r="E4" s="7" t="str">
-        <f>master!N10</f>
+        <f>master!O10</f>
         <v>bjenks@swiftconstructioncompany.net</v>
       </c>
       <c r="F4" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R10,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S10,",ou=People,dc=root,dc=org")</f>
         <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I4" s="7" t="str">
-        <f>master!G10</f>
+        <f>master!H10</f>
         <v>bjenks</v>
       </c>
-      <c r="J4" s="44" t="s">
-        <v>50</v>
+      <c r="J4" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -7234,29 +7269,29 @@
         <v>Swift</v>
       </c>
       <c r="D5" s="7" t="str">
-        <f>master!M11</f>
+        <f>master!N11</f>
         <v>President</v>
       </c>
       <c r="E5" s="7" t="str">
-        <f>master!N11</f>
+        <f>master!O11</f>
         <v>bswift@swiftconstructioncompany.net</v>
       </c>
       <c r="F5" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R11,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S11,",ou=People,dc=root,dc=org")</f>
         <v>cn=,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I5" s="7" t="str">
-        <f>master!G11</f>
+        <f>master!H11</f>
         <v>bswift</v>
       </c>
-      <c r="J5" s="44" t="s">
-        <v>50</v>
+      <c r="J5" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -7273,29 +7308,29 @@
         <v>Armstrong</v>
       </c>
       <c r="D6" s="7" t="str">
-        <f>master!M12</f>
+        <f>master!N12</f>
         <v>Mechanical Engineer</v>
       </c>
       <c r="E6" s="7" t="str">
-        <f>master!N12</f>
+        <f>master!O12</f>
         <v>barmstrong@swiftconstructioncompany.net</v>
       </c>
       <c r="F6" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R12,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S12,",ou=People,dc=root,dc=org")</f>
         <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I6" s="7" t="str">
-        <f>master!G12</f>
+        <f>master!H12</f>
         <v>barmstrong</v>
       </c>
-      <c r="J6" s="44" t="s">
-        <v>50</v>
+      <c r="J6" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -7312,29 +7347,29 @@
         <v>Mason</v>
       </c>
       <c r="D7" s="7" t="str">
-        <f>master!M13</f>
+        <f>master!N13</f>
         <v>Engineering Project Coordinator</v>
       </c>
       <c r="E7" s="7" t="str">
-        <f>master!N13</f>
+        <f>master!O13</f>
         <v>fmason@swiftconstructioncompany.net</v>
       </c>
       <c r="F7" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R13,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S13,",ou=People,dc=root,dc=org")</f>
         <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I7" s="7" t="str">
-        <f>master!G13</f>
+        <f>master!H13</f>
         <v>fmason</v>
       </c>
-      <c r="J7" s="44" t="s">
-        <v>50</v>
+      <c r="J7" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -7351,29 +7386,29 @@
         <v>Jackson</v>
       </c>
       <c r="D8" s="7" t="str">
-        <f>master!M14</f>
+        <f>master!N14</f>
         <v>Production Planner</v>
       </c>
       <c r="E8" s="7" t="str">
-        <f>master!N14</f>
+        <f>master!O14</f>
         <v>gjackson@swiftconstructioncompany.net</v>
       </c>
       <c r="F8" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R14,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S14,",ou=People,dc=root,dc=org")</f>
         <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I8" s="7" t="str">
-        <f>master!G14</f>
+        <f>master!H14</f>
         <v>gjackson</v>
       </c>
-      <c r="J8" s="44" t="s">
-        <v>50</v>
+      <c r="J8" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -7390,29 +7425,29 @@
         <v>Baldwin</v>
       </c>
       <c r="D9" s="7" t="str">
-        <f>master!M15</f>
+        <f>master!N15</f>
         <v>Lead Hand</v>
       </c>
       <c r="E9" s="7" t="str">
-        <f>master!N15</f>
+        <f>master!O15</f>
         <v>hbaldwin@swiftconstructioncompany.net</v>
       </c>
       <c r="F9" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R15,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S15,",ou=People,dc=root,dc=org")</f>
         <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I9" s="7" t="str">
-        <f>master!G15</f>
+        <f>master!H15</f>
         <v>hbaldwin</v>
       </c>
-      <c r="J9" s="44" t="s">
-        <v>50</v>
+      <c r="J9" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -7429,29 +7464,29 @@
         <v>Randall</v>
       </c>
       <c r="D10" s="7" t="str">
-        <f>master!M16</f>
+        <f>master!N16</f>
         <v>AP Clerk</v>
       </c>
       <c r="E10" s="7" t="str">
-        <f>master!N16</f>
+        <f>master!O16</f>
         <v>hrandall@swiftconstructioncompany.net</v>
       </c>
       <c r="F10" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R16,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S16,",ou=People,dc=root,dc=org")</f>
         <v>cn=Ned Newton,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I10" s="7" t="str">
-        <f>master!G16</f>
+        <f>master!H16</f>
         <v>hrandall</v>
       </c>
-      <c r="J10" s="44" t="s">
-        <v>50</v>
+      <c r="J10" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -7468,29 +7503,29 @@
         <v>Wood</v>
       </c>
       <c r="D11" s="7" t="str">
-        <f>master!M17</f>
+        <f>master!N17</f>
         <v>Sales Agent</v>
       </c>
       <c r="E11" s="7" t="str">
-        <f>master!N17</f>
+        <f>master!O17</f>
         <v>jwood@swiftconstructioncompany.net</v>
       </c>
       <c r="F11" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R17,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S17,",ou=People,dc=root,dc=org")</f>
         <v>cn=James Period,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I11" s="7" t="str">
-        <f>master!G17</f>
+        <f>master!H17</f>
         <v>jwood</v>
       </c>
-      <c r="J11" s="44" t="s">
-        <v>50</v>
+      <c r="J11" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -7507,29 +7542,29 @@
         <v>Period</v>
       </c>
       <c r="D12" s="7" t="str">
-        <f>master!M18</f>
+        <f>master!N18</f>
         <v>Director, Sales &amp; Marketing</v>
       </c>
       <c r="E12" s="7" t="str">
-        <f>master!N18</f>
+        <f>master!O18</f>
         <v>jperiod@swiftconstructioncompany.net</v>
       </c>
       <c r="F12" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R18,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S18,",ou=People,dc=root,dc=org")</f>
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I12" s="7" t="str">
-        <f>master!G18</f>
+        <f>master!H18</f>
         <v>jperiod</v>
       </c>
-      <c r="J12" s="44" t="s">
-        <v>50</v>
+      <c r="J12" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -7546,29 +7581,29 @@
         <v>Haddon</v>
       </c>
       <c r="D13" s="7" t="str">
-        <f>master!M19</f>
+        <f>master!N19</f>
         <v>Buyer</v>
       </c>
       <c r="E13" s="7" t="str">
-        <f>master!N19</f>
+        <f>master!O19</f>
         <v>jhaddon@swiftconstructioncompany.net</v>
       </c>
       <c r="F13" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R19,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S19,",ou=People,dc=root,dc=org")</f>
         <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I13" s="7" t="str">
-        <f>master!G19</f>
+        <f>master!H19</f>
         <v>jhaddon</v>
       </c>
-      <c r="J13" s="44" t="s">
-        <v>50</v>
+      <c r="J13" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -7585,29 +7620,29 @@
         <v>Morse</v>
       </c>
       <c r="D14" s="7" t="str">
-        <f>master!M20</f>
+        <f>master!N20</f>
         <v>AR Clerk</v>
       </c>
       <c r="E14" s="7" t="str">
-        <f>master!N20</f>
+        <f>master!O20</f>
         <v>jmorse@swiftconstructioncompany.net</v>
       </c>
       <c r="F14" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R20,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S20,",ou=People,dc=root,dc=org")</f>
         <v>cn=Ned Newton,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I14" s="7" t="str">
-        <f>master!G20</f>
+        <f>master!H20</f>
         <v>jmorse</v>
       </c>
-      <c r="J14" s="44" t="s">
-        <v>50</v>
+      <c r="J14" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -7624,29 +7659,29 @@
         <v>Sharp</v>
       </c>
       <c r="D15" s="7" t="str">
-        <f>master!M21</f>
+        <f>master!N21</f>
         <v>Director, Prod Mgmt</v>
       </c>
       <c r="E15" s="7" t="str">
-        <f>master!N21</f>
+        <f>master!O21</f>
         <v>jsharp@swiftconstructioncompany.net</v>
       </c>
       <c r="F15" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R21,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S21,",ou=People,dc=root,dc=org")</f>
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I15" s="7" t="str">
-        <f>master!G21</f>
+        <f>master!H21</f>
         <v>jsharp</v>
       </c>
-      <c r="J15" s="44" t="s">
-        <v>50</v>
+      <c r="J15" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -7663,29 +7698,29 @@
         <v>Baggert</v>
       </c>
       <c r="D16" s="7" t="str">
-        <f>master!M22</f>
+        <f>master!N22</f>
         <v>Director, Human Resources</v>
       </c>
       <c r="E16" s="7" t="str">
-        <f>master!N22</f>
+        <f>master!O22</f>
         <v>mbaggert@swiftconstructioncompany.net</v>
       </c>
       <c r="F16" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R22,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S22,",ou=People,dc=root,dc=org")</f>
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I16" s="7" t="str">
-        <f>master!G22</f>
+        <f>master!H22</f>
         <v>mbaggert</v>
       </c>
-      <c r="J16" s="44" t="s">
-        <v>50</v>
+      <c r="J16" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -7702,29 +7737,29 @@
         <v>Nestor</v>
       </c>
       <c r="D17" s="7" t="str">
-        <f>master!M23</f>
+        <f>master!N23</f>
         <v>Director, MIS-IT</v>
       </c>
       <c r="E17" s="7" t="str">
-        <f>master!N23</f>
+        <f>master!O23</f>
         <v>mnestor@swiftconstructioncompany.net</v>
       </c>
       <c r="F17" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R23,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S23,",ou=People,dc=root,dc=org")</f>
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I17" s="7" t="str">
-        <f>master!G23</f>
+        <f>master!H23</f>
         <v>mnestor</v>
       </c>
-      <c r="J17" s="44" t="s">
-        <v>50</v>
+      <c r="J17" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -7741,29 +7776,29 @@
         <v>Blair</v>
       </c>
       <c r="D18" s="7" t="str">
-        <f>master!M24</f>
+        <f>master!N24</f>
         <v>Software Engineer</v>
       </c>
       <c r="E18" s="7" t="str">
-        <f>master!N24</f>
+        <f>master!O24</f>
         <v>mblair@swiftconstructioncompany.net</v>
       </c>
       <c r="F18" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R24,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S24,",ou=People,dc=root,dc=org")</f>
         <v>cn=Tom Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I18" s="7" t="str">
-        <f>master!G24</f>
+        <f>master!H24</f>
         <v>mblair</v>
       </c>
-      <c r="J18" s="44" t="s">
-        <v>50</v>
+      <c r="J18" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -7780,29 +7815,29 @@
         <v>DeLazes</v>
       </c>
       <c r="D19" s="7" t="str">
-        <f>master!M25</f>
+        <f>master!N25</f>
         <v>Director, Manufacturing</v>
       </c>
       <c r="E19" s="7" t="str">
-        <f>master!N25</f>
+        <f>master!O25</f>
         <v>mdelazes@swiftconstructioncompany.net</v>
       </c>
       <c r="F19" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R25,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S25,",ou=People,dc=root,dc=org")</f>
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I19" s="7" t="str">
-        <f>master!G25</f>
+        <f>master!H25</f>
         <v>mdelazes</v>
       </c>
-      <c r="J19" s="44" t="s">
-        <v>50</v>
+      <c r="J19" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -7819,29 +7854,29 @@
         <v>Newton</v>
       </c>
       <c r="D20" s="7" t="str">
-        <f>master!M26</f>
+        <f>master!N26</f>
         <v>Chief Financial Officer</v>
       </c>
       <c r="E20" s="7" t="str">
-        <f>master!N26</f>
+        <f>master!O26</f>
         <v>nnewton@swiftconstructioncompany.net</v>
       </c>
       <c r="F20" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R26,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S26,",ou=People,dc=root,dc=org")</f>
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I20" s="7" t="str">
-        <f>master!G26</f>
+        <f>master!H26</f>
         <v>nnewton</v>
       </c>
-      <c r="J20" s="44" t="s">
-        <v>50</v>
+      <c r="J20" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -7858,29 +7893,29 @@
         <v>Sampson</v>
       </c>
       <c r="D21" s="7" t="str">
-        <f>master!M27</f>
+        <f>master!N27</f>
         <v>Director, Quality</v>
       </c>
       <c r="E21" s="7" t="str">
-        <f>master!N27</f>
+        <f>master!O27</f>
         <v>rsampson@swiftconstructioncompany.net</v>
       </c>
       <c r="F21" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R27,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S27,",ou=People,dc=root,dc=org")</f>
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I21" s="7" t="str">
-        <f>master!G27</f>
+        <f>master!H27</f>
         <v>rsampson</v>
       </c>
-      <c r="J21" s="44" t="s">
-        <v>50</v>
+      <c r="J21" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -7897,29 +7932,29 @@
         <v>Malloy</v>
       </c>
       <c r="D22" s="7" t="str">
-        <f>master!M28</f>
+        <f>master!N28</f>
         <v>Receiver</v>
       </c>
       <c r="E22" s="7" t="str">
-        <f>master!N28</f>
+        <f>master!O28</f>
         <v>smalloy@swiftconstructioncompany.net</v>
       </c>
       <c r="F22" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R28,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S28,",ou=People,dc=root,dc=org")</f>
         <v>cn=Miguel DeLazes,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I22" s="7" t="str">
-        <f>master!G28</f>
+        <f>master!H28</f>
         <v>smalloy</v>
       </c>
-      <c r="J22" s="44" t="s">
-        <v>50</v>
+      <c r="J22" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -7936,29 +7971,29 @@
         <v>Swift</v>
       </c>
       <c r="D23" s="7" t="str">
-        <f>master!M29</f>
+        <f>master!N29</f>
         <v>Director, Engineering</v>
       </c>
       <c r="E23" s="7" t="str">
-        <f>master!N29</f>
+        <f>master!O29</f>
         <v>tswift@swiftconstructioncompany.net</v>
       </c>
       <c r="F23" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R29,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S29,",ou=People,dc=root,dc=org")</f>
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I23" s="7" t="str">
-        <f>master!G29</f>
+        <f>master!H29</f>
         <v>tswift</v>
       </c>
-      <c r="J23" s="44" t="s">
-        <v>50</v>
+      <c r="J23" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -7975,29 +8010,29 @@
         <v>Damon</v>
       </c>
       <c r="D24" s="7" t="str">
-        <f>master!M30</f>
+        <f>master!N30</f>
         <v>Technical Writer</v>
       </c>
       <c r="E24" s="7" t="str">
-        <f>master!N30</f>
+        <f>master!O30</f>
         <v>wdamon@swiftconstructioncompany.net</v>
       </c>
       <c r="F24" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R30,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S30,",ou=People,dc=root,dc=org")</f>
         <v>cn=John Sharp,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I24" s="7" t="str">
-        <f>master!G30</f>
+        <f>master!H30</f>
         <v>wdamon</v>
       </c>
-      <c r="J24" s="44" t="s">
-        <v>50</v>
+      <c r="J24" s="43" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -8014,29 +8049,29 @@
         <v>Crawford</v>
       </c>
       <c r="D25" s="7" t="str">
-        <f>master!M31</f>
+        <f>master!N31</f>
         <v>Director, Legal</v>
       </c>
       <c r="E25" s="7" t="str">
-        <f>master!N31</f>
+        <f>master!O31</f>
         <v>wcrawford@swiftconstructioncompany.net</v>
       </c>
       <c r="F25" s="7" t="str">
-        <f>CONCATENATE("cn=",master!R31,",ou=People,dc=root,dc=org")</f>
+        <f>CONCATENATE("cn=",master!S31,",ou=People,dc=root,dc=org")</f>
         <v>cn=Barton Swift,ou=People,dc=root,dc=org</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I25" s="7" t="str">
-        <f>master!G31</f>
+        <f>master!H31</f>
         <v>wcrawford</v>
       </c>
-      <c r="J25" s="43" t="s">
-        <v>50</v>
+      <c r="J25" s="42" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -8057,23 +8092,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>340</v>
+      <c r="A1" s="38" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>338</v>
+      <c r="A5" s="38" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8081,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8089,7 +8124,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8097,12 +8132,12 @@
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>339</v>
+      <c r="A10" s="38" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8110,7 +8145,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8118,7 +8153,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8126,7 +8161,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
